--- a/日課表.xlsx
+++ b/日課表.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13515"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15375" windowHeight="13035" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="1.1" sheetId="1" r:id="rId1"/>
     <sheet name="1.2" sheetId="2" r:id="rId2"/>
-    <sheet name="1.4" sheetId="13" r:id="rId3"/>
-    <sheet name="1.5" sheetId="3" r:id="rId4"/>
-    <sheet name="1.6" sheetId="12" r:id="rId5"/>
-    <sheet name="1.7" sheetId="9" r:id="rId6"/>
-    <sheet name="1.8" sheetId="5" r:id="rId7"/>
-    <sheet name="2.はてな" sheetId="10" r:id="rId8"/>
-    <sheet name="2.8" sheetId="8" r:id="rId9"/>
-    <sheet name="3.9" sheetId="11" r:id="rId10"/>
+    <sheet name="Sheet1" sheetId="14" r:id="rId3"/>
+    <sheet name="1.4" sheetId="13" r:id="rId4"/>
+    <sheet name="1.5" sheetId="3" r:id="rId5"/>
+    <sheet name="1.6" sheetId="12" r:id="rId6"/>
+    <sheet name="1.7" sheetId="9" r:id="rId7"/>
+    <sheet name="1.8" sheetId="5" r:id="rId8"/>
+    <sheet name="2.はてな" sheetId="10" r:id="rId9"/>
+    <sheet name="2.8" sheetId="8" r:id="rId10"/>
+    <sheet name="3.9" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -684,8 +685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -880,6 +881,173 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>64</v>
       </c>
       <c r="C2" t="s">
@@ -1184,6 +1352,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1349,7 +1531,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
@@ -1516,7 +1698,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
@@ -1684,7 +1866,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
@@ -1851,7 +2033,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
@@ -2018,11 +2200,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -2183,171 +2365,4 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/日課表.xlsx
+++ b/日課表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15375" windowHeight="13035" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15375" windowHeight="11730" firstSheet="10" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="1.1" sheetId="1" r:id="rId1"/>
@@ -15,9 +15,22 @@
     <sheet name="1.6" sheetId="12" r:id="rId6"/>
     <sheet name="1.7" sheetId="9" r:id="rId7"/>
     <sheet name="1.8" sheetId="5" r:id="rId8"/>
-    <sheet name="2.はてな" sheetId="10" r:id="rId9"/>
-    <sheet name="2.8" sheetId="8" r:id="rId10"/>
-    <sheet name="3.9" sheetId="11" r:id="rId11"/>
+    <sheet name="Sheet2" sheetId="15" r:id="rId9"/>
+    <sheet name="2.はてな" sheetId="10" r:id="rId10"/>
+    <sheet name="Sheet3" sheetId="16" r:id="rId11"/>
+    <sheet name="Sheet4" sheetId="17" r:id="rId12"/>
+    <sheet name="Sheet5" sheetId="18" r:id="rId13"/>
+    <sheet name="Sheet6" sheetId="19" r:id="rId14"/>
+    <sheet name="Sheet7" sheetId="20" r:id="rId15"/>
+    <sheet name="2.8" sheetId="8" r:id="rId16"/>
+    <sheet name="Sheet8" sheetId="21" r:id="rId17"/>
+    <sheet name="Sheet9" sheetId="22" r:id="rId18"/>
+    <sheet name="Sheet10" sheetId="23" r:id="rId19"/>
+    <sheet name="Sheet11" sheetId="24" r:id="rId20"/>
+    <sheet name="Sheet12" sheetId="25" r:id="rId21"/>
+    <sheet name="Sheet13" sheetId="26" r:id="rId22"/>
+    <sheet name="Sheet14" sheetId="27" r:id="rId23"/>
+    <sheet name="3.9" sheetId="11" r:id="rId24"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -881,19 +894,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E2" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
@@ -901,19 +914,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E3" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="F3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
@@ -921,19 +934,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="F4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
@@ -941,19 +954,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="E5" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F5" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
@@ -961,19 +974,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="E6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
@@ -981,19 +994,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
@@ -1001,10 +1014,10 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
         <v>29</v>
@@ -1017,6 +1030,71 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
@@ -1048,19 +1126,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="F2" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
@@ -1068,19 +1146,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
@@ -1088,19 +1166,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D4" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
@@ -1108,19 +1186,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="F5" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
@@ -1128,19 +1206,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" t="s">
         <v>52</v>
       </c>
-      <c r="C6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" t="s">
-        <v>48</v>
-      </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="F6" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
@@ -1148,19 +1226,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D7" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="F7" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
@@ -1168,7 +1246,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E8" t="s">
         <v>59</v>
@@ -1178,6 +1256,45 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1350,11 +1467,230 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A19" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
@@ -2202,167 +2538,14 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/日課表.xlsx
+++ b/日課表.xlsx
@@ -1,48 +1,61 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10916"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="67" documentId="11_1B161677DF7C0C22C604C4B19EA9D8C0F379F1F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4ED44E0F-CC5D-AB4E-ACBA-2C8D2E4EAA15}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15375" windowHeight="11730" firstSheet="10" activeTab="22"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15375" windowHeight="11730" firstSheet="22" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1.1" sheetId="1" r:id="rId1"/>
     <sheet name="1.2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="14" r:id="rId3"/>
+    <sheet name="1-3" sheetId="14" r:id="rId3"/>
     <sheet name="1.4" sheetId="13" r:id="rId4"/>
     <sheet name="1.5" sheetId="3" r:id="rId5"/>
     <sheet name="1.6" sheetId="12" r:id="rId6"/>
     <sheet name="1.7" sheetId="9" r:id="rId7"/>
     <sheet name="1.8" sheetId="5" r:id="rId8"/>
-    <sheet name="Sheet2" sheetId="15" r:id="rId9"/>
-    <sheet name="2.はてな" sheetId="10" r:id="rId10"/>
-    <sheet name="Sheet3" sheetId="16" r:id="rId11"/>
-    <sheet name="Sheet4" sheetId="17" r:id="rId12"/>
-    <sheet name="Sheet5" sheetId="18" r:id="rId13"/>
-    <sheet name="Sheet6" sheetId="19" r:id="rId14"/>
-    <sheet name="Sheet7" sheetId="20" r:id="rId15"/>
+    <sheet name="2-1" sheetId="15" r:id="rId9"/>
+    <sheet name="2-2" sheetId="10" r:id="rId10"/>
+    <sheet name="2-3" sheetId="16" r:id="rId11"/>
+    <sheet name="2-4" sheetId="17" r:id="rId12"/>
+    <sheet name="2-5" sheetId="18" r:id="rId13"/>
+    <sheet name="2-6" sheetId="19" r:id="rId14"/>
+    <sheet name="2-7" sheetId="20" r:id="rId15"/>
     <sheet name="2.8" sheetId="8" r:id="rId16"/>
-    <sheet name="Sheet8" sheetId="21" r:id="rId17"/>
-    <sheet name="Sheet9" sheetId="22" r:id="rId18"/>
-    <sheet name="Sheet10" sheetId="23" r:id="rId19"/>
-    <sheet name="Sheet11" sheetId="24" r:id="rId20"/>
-    <sheet name="Sheet12" sheetId="25" r:id="rId21"/>
-    <sheet name="Sheet13" sheetId="26" r:id="rId22"/>
-    <sheet name="Sheet14" sheetId="27" r:id="rId23"/>
-    <sheet name="3.9" sheetId="11" r:id="rId24"/>
+    <sheet name="3-1" sheetId="21" r:id="rId17"/>
+    <sheet name="3-2" sheetId="22" r:id="rId18"/>
+    <sheet name="3-3" sheetId="23" r:id="rId19"/>
+    <sheet name="3-4" sheetId="24" r:id="rId20"/>
+    <sheet name="3-5" sheetId="25" r:id="rId21"/>
+    <sheet name="3-6" sheetId="26" r:id="rId22"/>
+    <sheet name="3-7" sheetId="28" r:id="rId23"/>
+    <sheet name="3-8" sheetId="27" r:id="rId24"/>
+    <sheet name="3.9" sheetId="11" r:id="rId25"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="79">
   <si>
     <t>月</t>
     <rPh sb="0" eb="1">
@@ -79,6 +92,33 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>論表1</t>
+  </si>
+  <si>
+    <t>芸術</t>
+    <rPh sb="0" eb="2">
+      <t>ゲイジュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>舞st</t>
+    <rPh sb="0" eb="1">
+      <t>マイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>物理基礎</t>
+    <rPh sb="0" eb="4">
+      <t>ブツリキソ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数A</t>
+  </si>
+  <si>
     <t>現国</t>
     <rPh sb="0" eb="2">
       <t>ゲンコク</t>
@@ -86,6 +126,20 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>言文</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>体育</t>
+  </si>
+  <si>
     <t>英C1</t>
     <rPh sb="0" eb="1">
       <t>エイ</t>
@@ -93,6 +147,30 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>言語文化</t>
+    <rPh sb="0" eb="4">
+      <t>ゲンゴブンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保健</t>
+    <rPh sb="0" eb="2">
+      <t>ホケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家庭基礎</t>
+    <rPh sb="0" eb="4">
+      <t>カテイキソ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>歴史総合</t>
+  </si>
+  <si>
     <t>数A</t>
     <rPh sb="0" eb="1">
       <t>スウ</t>
@@ -100,6 +178,26 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>生物基礎</t>
+    <rPh sb="0" eb="4">
+      <t>セイブツキソ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>歴史総合</t>
+    <rPh sb="0" eb="4">
+      <t>レキシソウゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家庭基礎</t>
+  </si>
+  <si>
+    <t>生物基礎</t>
+  </si>
+  <si>
     <t>体育</t>
     <rPh sb="0" eb="2">
       <t>タイイク</t>
@@ -107,23 +205,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>芸術</t>
-    <rPh sb="0" eb="2">
-      <t>ゲイジュツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>生物基礎</t>
-    <rPh sb="0" eb="4">
-      <t>セイブツキソ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>物理基礎</t>
-    <rPh sb="0" eb="4">
-      <t>ブツリキソ</t>
+    <t>数1/2</t>
+  </si>
+  <si>
+    <t>英C1</t>
+  </si>
+  <si>
+    <t>数1/2</t>
+    <rPh sb="0" eb="1">
+      <t>スウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -135,195 +225,77 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>現国</t>
+  </si>
+  <si>
+    <t>HRA</t>
+  </si>
+  <si>
+    <t>月</t>
+  </si>
+  <si>
+    <t>火</t>
+  </si>
+  <si>
+    <t>水</t>
+  </si>
+  <si>
+    <t>木</t>
+  </si>
+  <si>
+    <t>金</t>
+  </si>
+  <si>
+    <t>芸術</t>
+  </si>
+  <si>
+    <t>データ</t>
+  </si>
+  <si>
     <t>言語文化</t>
-    <rPh sb="0" eb="4">
-      <t>ゲンゴブンカ</t>
+  </si>
+  <si>
+    <t>物理基礎</t>
+  </si>
+  <si>
+    <t>舞st</t>
+  </si>
+  <si>
+    <t>保健</t>
+  </si>
+  <si>
+    <t>探究</t>
+  </si>
+  <si>
+    <t>論表1</t>
+    <rPh sb="0" eb="2">
+      <t>ロンヒョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>舞st</t>
-    <rPh sb="0" eb="1">
-      <t>マイ</t>
+    <t>家庭基礎</t>
+    <rPh sb="0" eb="2">
+      <t>カテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キソ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>言文</t>
+    <t>HRA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>物理基礎</t>
     <rPh sb="0" eb="2">
-      <t>ゲンブン</t>
+      <t>ブツリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キソ</t>
     </rPh>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>保健</t>
-    <rPh sb="0" eb="2">
-      <t>ホケン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>歴史総合</t>
-    <rPh sb="0" eb="4">
-      <t>レキシソウゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>数1/2</t>
-    <rPh sb="0" eb="1">
-      <t>スウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>データ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>家庭基礎</t>
-    <rPh sb="0" eb="4">
-      <t>カテイキソ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>家庭基礎</t>
-  </si>
-  <si>
-    <t>数1/2</t>
-  </si>
-  <si>
-    <t>現国</t>
-  </si>
-  <si>
-    <t>数A</t>
-  </si>
-  <si>
-    <t>体育</t>
-  </si>
-  <si>
-    <t>歴史総合</t>
-  </si>
-  <si>
-    <t>生物基礎</t>
-  </si>
-  <si>
-    <t>英C1</t>
-  </si>
-  <si>
-    <t>HRA</t>
-  </si>
-  <si>
-    <t>月</t>
-  </si>
-  <si>
-    <t>火</t>
-  </si>
-  <si>
-    <t>水</t>
-  </si>
-  <si>
-    <t>木</t>
-  </si>
-  <si>
-    <t>金</t>
-  </si>
-  <si>
-    <t>物理基礎</t>
-  </si>
-  <si>
-    <t>芸術</t>
-  </si>
-  <si>
-    <t>論表1</t>
-  </si>
-  <si>
-    <t>保健</t>
-  </si>
-  <si>
-    <t>SSH</t>
-  </si>
-  <si>
-    <t>探究</t>
-  </si>
-  <si>
-    <t>言語文化</t>
-  </si>
-  <si>
-    <t>データ</t>
-  </si>
-  <si>
-    <t>舞st</t>
-  </si>
-  <si>
-    <t>英C2</t>
-  </si>
-  <si>
-    <t>英C3</t>
-  </si>
-  <si>
-    <t>古典探究</t>
-  </si>
-  <si>
-    <t>論表2</t>
-  </si>
-  <si>
-    <t>地理</t>
-  </si>
-  <si>
-    <t>数B</t>
-  </si>
-  <si>
-    <t>数2</t>
-  </si>
-  <si>
-    <t>論表3</t>
-  </si>
-  <si>
-    <t>論理国語</t>
-  </si>
-  <si>
-    <t>公共</t>
-  </si>
-  <si>
-    <t>物理/生物</t>
-  </si>
-  <si>
-    <t>化学</t>
-  </si>
-  <si>
-    <t>数3</t>
-  </si>
-  <si>
-    <t>国情</t>
-  </si>
-  <si>
-    <t>化学探究</t>
-  </si>
-  <si>
-    <t>舞プロ</t>
-  </si>
-  <si>
-    <t>数B/C</t>
-  </si>
-  <si>
-    <t>文学国語</t>
-  </si>
-  <si>
-    <t>地理/歴史</t>
-  </si>
-  <si>
-    <t>化学基礎</t>
-  </si>
-  <si>
-    <t>理数化学</t>
-  </si>
-  <si>
-    <t>理数物/生</t>
-  </si>
-  <si>
-    <t>数BC</t>
   </si>
   <si>
     <t>生物基礎</t>
@@ -336,23 +308,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>論表1</t>
-    <rPh sb="0" eb="2">
-      <t>ロンヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>物理基礎</t>
-    <rPh sb="0" eb="2">
-      <t>ブツリ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>キソ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>数Ａ</t>
     <rPh sb="0" eb="1">
       <t>スウ</t>
@@ -360,24 +315,91 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>HRA</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>家庭基礎</t>
-    <rPh sb="0" eb="2">
-      <t>カテイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>キソ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+    <t>古典探究</t>
+  </si>
+  <si>
+    <t>公共</t>
+  </si>
+  <si>
+    <t>数B/C</t>
+  </si>
+  <si>
+    <t>文学国語</t>
+  </si>
+  <si>
+    <t>論理国語</t>
+  </si>
+  <si>
+    <t>英C2</t>
+  </si>
+  <si>
+    <t>論表2</t>
+  </si>
+  <si>
+    <t>地理/歴史</t>
+  </si>
+  <si>
+    <t>数2</t>
+  </si>
+  <si>
+    <t>化学基礎</t>
+  </si>
+  <si>
+    <t>国情</t>
+  </si>
+  <si>
+    <t>SSH</t>
+  </si>
+  <si>
+    <t>化学</t>
+  </si>
+  <si>
+    <t>数B</t>
+  </si>
+  <si>
+    <t>地理</t>
+  </si>
+  <si>
+    <t>物理/生物</t>
+  </si>
+  <si>
+    <t>化学探究</t>
+  </si>
+  <si>
+    <t>舞プロ</t>
+  </si>
+  <si>
+    <t>理数化学</t>
+  </si>
+  <si>
+    <t>理数物/生</t>
+  </si>
+  <si>
+    <t>英C3</t>
+  </si>
+  <si>
+    <t>数3</t>
+  </si>
+  <si>
+    <t>論表3</t>
+  </si>
+  <si>
+    <t>数BC</t>
+  </si>
+  <si>
+    <t>現代の国語</t>
+  </si>
+  <si>
+    <t>論表</t>
+  </si>
+  <si>
+    <t>探求</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -695,16 +717,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -721,138 +743,138 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
         <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -863,164 +885,164 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="F2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" t="s">
         <v>50</v>
       </c>
-      <c r="E4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E6" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="F6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="E7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1030,12 +1052,12 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1043,12 +1065,12 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1056,12 +1078,12 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1069,12 +1091,12 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1082,12 +1104,12 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1095,164 +1117,164 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" t="s">
         <v>49</v>
       </c>
-      <c r="F3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="F4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E5" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E7" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="F7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E8" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1262,12 +1284,12 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1275,12 +1297,12 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1288,12 +1310,12 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1301,164 +1323,164 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
         <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
         <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
         <v>25</v>
       </c>
-      <c r="C6" t="s">
+      <c r="F6" t="s">
         <v>26</v>
       </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1468,12 +1490,12 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1481,12 +1503,12 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1494,12 +1516,12 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1507,177 +1529,189 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{700148FC-A547-4678-9855-DA01AB37524F}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="E3" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="F3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="D4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D6" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="F6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="D7" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="E8" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1687,13 +1721,167 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1701,16 +1889,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1727,138 +1915,138 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
       <c r="F2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
         <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1868,164 +2056,164 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
         <v>25</v>
       </c>
-      <c r="C2" t="s">
-        <v>22</v>
-      </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
         <v>26</v>
       </c>
-      <c r="D4" t="s">
-        <v>28</v>
-      </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" t="s">
         <v>38</v>
       </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -2035,16 +2223,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2061,47 +2249,47 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2109,90 +2297,90 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="F5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
         <v>17</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="F7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F8" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -2203,164 +2391,164 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
-        <v>27</v>
-      </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" t="s">
         <v>38</v>
       </c>
-      <c r="C3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="F7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -2370,164 +2558,164 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
         <v>26</v>
       </c>
-      <c r="C5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
         <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" t="s">
-        <v>21</v>
       </c>
       <c r="F6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
         <v>22</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" t="s">
-        <v>21</v>
       </c>
       <c r="F7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -2537,15 +2725,252 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100954BCABBCAB12F408558E2575A4DC692" ma:contentTypeVersion="13" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="a7167f06be95d68667d20130523813c6">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3f22f8a7-8acf-4c8b-b850-cb24a6db7b6d" xmlns:ns3="21b2c721-d934-4f38-98be-49e0b11a18da" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="95caee9c29ea1bbc86b7b940426e9a0e" ns2:_="" ns3:_="">
+    <xsd:import namespace="3f22f8a7-8acf-4c8b-b850-cb24a6db7b6d"/>
+    <xsd:import namespace="21b2c721-d934-4f38-98be-49e0b11a18da"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="3f22f8a7-8acf-4c8b-b850-cb24a6db7b6d" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="9" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="画像タグ" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="8a78fa4a-40b8-4e29-8771-2350bfedeed8" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceMetadata" ma:index="11" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="12" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="13" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="17" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="18" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="19" nillable="true" ma:displayName="Location" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="20" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="21b2c721-d934-4f38-98be-49e0b11a18da" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="10" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{a9524c3e-6386-418b-9db4-bbaf41662ac3}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="21b2c721-d934-4f38-98be-49e0b11a18da">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="コンテンツ タイプ"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="タイトル"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8932280-A4E6-42C6-9FE0-4453FB03B876}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="3f22f8a7-8acf-4c8b-b850-cb24a6db7b6d"/>
+    <ds:schemaRef ds:uri="21b2c721-d934-4f38-98be-49e0b11a18da"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3665A27-099E-43E5-A0FA-468A4AF3E1E9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/日課表.xlsx
+++ b/日課表.xlsx
@@ -1,38 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10916"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="67" documentId="11_1B161677DF7C0C22C604C4B19EA9D8C0F379F1F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4ED44E0F-CC5D-AB4E-ACBA-2C8D2E4EAA15}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15375" windowHeight="11730" firstSheet="22" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10770" windowHeight="12180" firstSheet="3" activeTab="14"/>
   </bookViews>
   <sheets>
-    <sheet name="1.1" sheetId="1" r:id="rId1"/>
-    <sheet name="1.2" sheetId="2" r:id="rId2"/>
-    <sheet name="1-3" sheetId="14" r:id="rId3"/>
-    <sheet name="1.4" sheetId="13" r:id="rId4"/>
-    <sheet name="1.5" sheetId="3" r:id="rId5"/>
-    <sheet name="1.6" sheetId="12" r:id="rId6"/>
-    <sheet name="1.7" sheetId="9" r:id="rId7"/>
-    <sheet name="1.8" sheetId="5" r:id="rId8"/>
-    <sheet name="2-1" sheetId="15" r:id="rId9"/>
-    <sheet name="2-2" sheetId="10" r:id="rId10"/>
-    <sheet name="2-3" sheetId="16" r:id="rId11"/>
-    <sheet name="2-4" sheetId="17" r:id="rId12"/>
-    <sheet name="2-5" sheetId="18" r:id="rId13"/>
-    <sheet name="2-6" sheetId="19" r:id="rId14"/>
-    <sheet name="2-7" sheetId="20" r:id="rId15"/>
-    <sheet name="2.8" sheetId="8" r:id="rId16"/>
-    <sheet name="3-1" sheetId="21" r:id="rId17"/>
-    <sheet name="3-2" sheetId="22" r:id="rId18"/>
-    <sheet name="3-3" sheetId="23" r:id="rId19"/>
-    <sheet name="3-4" sheetId="24" r:id="rId20"/>
-    <sheet name="3-5" sheetId="25" r:id="rId21"/>
-    <sheet name="3-6" sheetId="26" r:id="rId22"/>
-    <sheet name="3-7" sheetId="28" r:id="rId23"/>
-    <sheet name="3-8" sheetId="27" r:id="rId24"/>
-    <sheet name="3.9" sheetId="11" r:id="rId25"/>
+    <sheet name="1年1組" sheetId="1" r:id="rId1"/>
+    <sheet name="1年2組" sheetId="2" r:id="rId2"/>
+    <sheet name="1年3組" sheetId="14" r:id="rId3"/>
+    <sheet name="1年4組" sheetId="13" r:id="rId4"/>
+    <sheet name="1年5組" sheetId="3" r:id="rId5"/>
+    <sheet name="1年6組" sheetId="12" r:id="rId6"/>
+    <sheet name="1年7組" sheetId="9" r:id="rId7"/>
+    <sheet name="1年8組" sheetId="5" r:id="rId8"/>
+    <sheet name="2年1組" sheetId="15" r:id="rId9"/>
+    <sheet name="2年2組" sheetId="10" r:id="rId10"/>
+    <sheet name="2年3組" sheetId="16" r:id="rId11"/>
+    <sheet name="2年4組" sheetId="17" r:id="rId12"/>
+    <sheet name="2年5組" sheetId="18" r:id="rId13"/>
+    <sheet name="2年6組" sheetId="19" r:id="rId14"/>
+    <sheet name="2年7組" sheetId="20" r:id="rId15"/>
+    <sheet name="2年8組" sheetId="8" r:id="rId16"/>
+    <sheet name="3年1組" sheetId="21" r:id="rId17"/>
+    <sheet name="3年2組" sheetId="22" r:id="rId18"/>
+    <sheet name="3年3組" sheetId="23" r:id="rId19"/>
+    <sheet name="3年4組" sheetId="24" r:id="rId20"/>
+    <sheet name="3年5組" sheetId="25" r:id="rId21"/>
+    <sheet name="3年6組" sheetId="26" r:id="rId22"/>
+    <sheet name="3年7組" sheetId="28" r:id="rId23"/>
+    <sheet name="3年8組" sheetId="27" r:id="rId24"/>
+    <sheet name="3年9組" sheetId="11" r:id="rId25"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -55,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="93">
   <si>
     <t>月</t>
     <rPh sb="0" eb="1">
@@ -395,11 +394,62 @@
   <si>
     <t>探求</t>
   </si>
+  <si>
+    <t>古典</t>
+  </si>
+  <si>
+    <t>地歴</t>
+  </si>
+  <si>
+    <t>C２</t>
+  </si>
+  <si>
+    <t>数２</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>E２</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>数２/３</t>
+  </si>
+  <si>
+    <t>古典探求</t>
+  </si>
+  <si>
+    <t>論理表現</t>
+  </si>
+  <si>
+    <t>物理・生物</t>
+  </si>
+  <si>
+    <t>国際情報</t>
+  </si>
+  <si>
+    <t>地歴探求</t>
+  </si>
+  <si>
+    <t>論表２</t>
+  </si>
+  <si>
+    <t>物生</t>
+  </si>
+  <si>
+    <t>数2/3</t>
+  </si>
+  <si>
+    <t>　C2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -717,16 +767,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -743,7 +793,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -763,7 +813,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -783,7 +833,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -803,7 +853,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -823,7 +873,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -843,7 +893,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -863,7 +913,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -885,16 +935,16 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>31</v>
       </c>
@@ -911,7 +961,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -931,7 +981,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -951,7 +1001,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -971,7 +1021,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -991,7 +1041,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1011,7 +1061,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1031,7 +1081,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1052,81 +1102,845 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O31" sqref="O31"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>31</v>
       </c>
@@ -1143,7 +1957,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1163,7 +1977,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1183,7 +1997,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1203,7 +2017,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1223,7 +2037,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1243,7 +2057,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1263,7 +2077,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1284,12 +2098,14 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P24" sqref="P24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1297,12 +2113,12 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1310,12 +2126,12 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1323,16 +2139,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>31</v>
       </c>
@@ -1349,7 +2165,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1369,7 +2185,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1389,7 +2205,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1409,7 +2225,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1429,7 +2245,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1449,7 +2265,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1469,7 +2285,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1490,12 +2306,12 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1503,12 +2319,14 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1516,12 +2334,12 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1529,24 +2347,26 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{700148FC-A547-4678-9855-DA01AB37524F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1554,16 +2374,16 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>31</v>
       </c>
@@ -1580,7 +2400,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1600,7 +2420,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1620,7 +2440,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1640,7 +2460,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1660,7 +2480,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1680,7 +2500,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1700,7 +2520,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1721,16 +2541,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>31</v>
       </c>
@@ -1747,7 +2567,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1767,7 +2587,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1787,7 +2607,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1807,7 +2627,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1827,7 +2647,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1847,7 +2667,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1867,7 +2687,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1889,16 +2709,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1915,7 +2735,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1935,7 +2755,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1955,7 +2775,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1975,7 +2795,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1995,7 +2815,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2015,7 +2835,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2035,7 +2855,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2056,16 +2876,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>31</v>
       </c>
@@ -2082,7 +2902,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2102,7 +2922,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2122,7 +2942,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2142,7 +2962,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2162,7 +2982,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2182,7 +3002,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2202,7 +3022,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2223,16 +3043,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2249,7 +3069,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2269,7 +3089,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2289,7 +3109,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2309,7 +3129,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2329,7 +3149,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2349,7 +3169,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2369,7 +3189,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2391,16 +3211,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>31</v>
       </c>
@@ -2417,7 +3237,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2437,7 +3257,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2457,7 +3277,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2477,7 +3297,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2497,7 +3317,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2517,7 +3337,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2537,7 +3357,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2558,16 +3378,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>31</v>
       </c>
@@ -2584,7 +3404,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2604,7 +3424,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2624,7 +3444,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2644,7 +3464,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2664,7 +3484,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2684,7 +3504,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2704,7 +3524,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2725,13 +3545,167 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2739,6 +3713,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100954BCABBCAB12F408558E2575A4DC692" ma:contentTypeVersion="13" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="a7167f06be95d68667d20130523813c6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3f22f8a7-8acf-4c8b-b850-cb24a6db7b6d" xmlns:ns3="21b2c721-d934-4f38-98be-49e0b11a18da" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="95caee9c29ea1bbc86b7b940426e9a0e" ns2:_="" ns3:_="">
     <xsd:import namespace="3f22f8a7-8acf-4c8b-b850-cb24a6db7b6d"/>
@@ -2945,16 +3928,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3665A27-099E-43E5-A0FA-468A4AF3E1E9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8932280-A4E6-42C6-9FE0-4453FB03B876}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2963,14 +3945,13 @@
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="3f22f8a7-8acf-4c8b-b850-cb24a6db7b6d"/>
     <ds:schemaRef ds:uri="21b2c721-d934-4f38-98be-49e0b11a18da"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3665A27-099E-43E5-A0FA-468A4AF3E1E9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>